--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.66628988652143</v>
+        <v>2.861854666666666</v>
       </c>
       <c r="H2">
-        <v>0.66628988652143</v>
+        <v>8.585564</v>
       </c>
       <c r="I2">
-        <v>0.01381127527087253</v>
+        <v>0.05512076040054963</v>
       </c>
       <c r="J2">
-        <v>0.01381127527087253</v>
+        <v>0.05512076040054963</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N2">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O2">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P2">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q2">
-        <v>4.505241430811976</v>
+        <v>20.74497108781645</v>
       </c>
       <c r="R2">
-        <v>4.505241430811976</v>
+        <v>186.704739790348</v>
       </c>
       <c r="S2">
-        <v>0.001042765780127404</v>
+        <v>0.004349785586217816</v>
       </c>
       <c r="T2">
-        <v>0.001042765780127404</v>
+        <v>0.004349785586217816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.66628988652143</v>
+        <v>2.861854666666666</v>
       </c>
       <c r="H3">
-        <v>0.66628988652143</v>
+        <v>8.585564</v>
       </c>
       <c r="I3">
-        <v>0.01381127527087253</v>
+        <v>0.05512076040054963</v>
       </c>
       <c r="J3">
-        <v>0.01381127527087253</v>
+        <v>0.05512076040054963</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N3">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O3">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P3">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q3">
-        <v>25.11906379471635</v>
+        <v>108.2549204871564</v>
       </c>
       <c r="R3">
-        <v>25.11906379471635</v>
+        <v>974.294284384408</v>
       </c>
       <c r="S3">
-        <v>0.00581396148380146</v>
+        <v>0.02269878761357931</v>
       </c>
       <c r="T3">
-        <v>0.00581396148380146</v>
+        <v>0.02269878761357931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.66628988652143</v>
+        <v>2.861854666666666</v>
       </c>
       <c r="H4">
-        <v>0.66628988652143</v>
+        <v>8.585564</v>
       </c>
       <c r="I4">
-        <v>0.01381127527087253</v>
+        <v>0.05512076040054963</v>
       </c>
       <c r="J4">
-        <v>0.01381127527087253</v>
+        <v>0.05512076040054963</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N4">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O4">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P4">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q4">
-        <v>24.37437981261212</v>
+        <v>109.3493957845062</v>
       </c>
       <c r="R4">
-        <v>24.37437981261212</v>
+        <v>984.144562060556</v>
       </c>
       <c r="S4">
-        <v>0.005641599805637781</v>
+        <v>0.02292827614131601</v>
       </c>
       <c r="T4">
-        <v>0.005641599805637781</v>
+        <v>0.02292827614131601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.66628988652143</v>
+        <v>2.861854666666666</v>
       </c>
       <c r="H5">
-        <v>0.66628988652143</v>
+        <v>8.585564</v>
       </c>
       <c r="I5">
-        <v>0.01381127527087253</v>
+        <v>0.05512076040054963</v>
       </c>
       <c r="J5">
-        <v>0.01381127527087253</v>
+        <v>0.05512076040054963</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N5">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O5">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P5">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q5">
-        <v>5.672557294995459</v>
+        <v>24.53230948771778</v>
       </c>
       <c r="R5">
-        <v>5.672557294995459</v>
+        <v>220.79078538946</v>
       </c>
       <c r="S5">
-        <v>0.001312948201305885</v>
+        <v>0.005143911059436494</v>
       </c>
       <c r="T5">
-        <v>0.001312948201305885</v>
+        <v>0.005143911059436494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.8101043603712</v>
+        <v>19.097892</v>
       </c>
       <c r="H6">
-        <v>18.8101043603712</v>
+        <v>57.293676</v>
       </c>
       <c r="I6">
-        <v>0.389907657988398</v>
+        <v>0.3678350062107417</v>
       </c>
       <c r="J6">
-        <v>0.389907657988398</v>
+        <v>0.3678350062107418</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N6">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O6">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P6">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q6">
-        <v>127.1879750789459</v>
+        <v>138.436525793148</v>
       </c>
       <c r="R6">
-        <v>127.1879750789459</v>
+        <v>1245.928732138332</v>
       </c>
       <c r="S6">
-        <v>0.02943843744953719</v>
+        <v>0.0290272375869813</v>
       </c>
       <c r="T6">
-        <v>0.02943843744953719</v>
+        <v>0.02902723758698131</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.8101043603712</v>
+        <v>19.097892</v>
       </c>
       <c r="H7">
-        <v>18.8101043603712</v>
+        <v>57.293676</v>
       </c>
       <c r="I7">
-        <v>0.389907657988398</v>
+        <v>0.3678350062107417</v>
       </c>
       <c r="J7">
-        <v>0.389907657988398</v>
+        <v>0.3678350062107418</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N7">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O7">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P7">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q7">
-        <v>709.1391014205938</v>
+        <v>722.4129177532079</v>
       </c>
       <c r="R7">
-        <v>709.1391014205938</v>
+        <v>6501.716259778872</v>
       </c>
       <c r="S7">
-        <v>0.1641345973723806</v>
+        <v>0.1514748458138832</v>
       </c>
       <c r="T7">
-        <v>0.1641345973723806</v>
+        <v>0.1514748458138832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8101043603712</v>
+        <v>19.097892</v>
       </c>
       <c r="H8">
-        <v>18.8101043603712</v>
+        <v>57.293676</v>
       </c>
       <c r="I8">
-        <v>0.389907657988398</v>
+        <v>0.3678350062107417</v>
       </c>
       <c r="J8">
-        <v>0.389907657988398</v>
+        <v>0.3678350062107418</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N8">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O8">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P8">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q8">
-        <v>688.1158445736257</v>
+        <v>729.7166328121559</v>
       </c>
       <c r="R8">
-        <v>688.1158445736257</v>
+        <v>6567.449695309404</v>
       </c>
       <c r="S8">
-        <v>0.1592686355446931</v>
+        <v>0.1530062817630956</v>
       </c>
       <c r="T8">
-        <v>0.1592686355446931</v>
+        <v>0.1530062817630956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8101043603712</v>
+        <v>19.097892</v>
       </c>
       <c r="H9">
-        <v>18.8101043603712</v>
+        <v>57.293676</v>
       </c>
       <c r="I9">
-        <v>0.389907657988398</v>
+        <v>0.3678350062107417</v>
       </c>
       <c r="J9">
-        <v>0.389907657988398</v>
+        <v>0.3678350062107418</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N9">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O9">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P9">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q9">
-        <v>160.1425998916429</v>
+        <v>163.71040869546</v>
       </c>
       <c r="R9">
-        <v>160.1425998916429</v>
+        <v>1473.39367825914</v>
       </c>
       <c r="S9">
-        <v>0.03706598762178723</v>
+        <v>0.03432664104678169</v>
       </c>
       <c r="T9">
-        <v>0.03706598762178723</v>
+        <v>0.03432664104678169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0701729690123771</v>
+        <v>0.144181</v>
       </c>
       <c r="H10">
-        <v>0.0701729690123771</v>
+        <v>0.432543</v>
       </c>
       <c r="I10">
-        <v>0.001454589378002177</v>
+        <v>0.002776998583428524</v>
       </c>
       <c r="J10">
-        <v>0.001454589378002177</v>
+        <v>0.002776998583428525</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N10">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O10">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P10">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q10">
-        <v>0.4744874171333802</v>
+        <v>1.045137166205667</v>
       </c>
       <c r="R10">
-        <v>0.4744874171333802</v>
+        <v>9.406234495851001</v>
       </c>
       <c r="S10">
-        <v>0.0001098230248669609</v>
+        <v>0.0002191433558493551</v>
       </c>
       <c r="T10">
-        <v>0.0001098230248669609</v>
+        <v>0.0002191433558493551</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0701729690123771</v>
+        <v>0.144181</v>
       </c>
       <c r="H11">
-        <v>0.0701729690123771</v>
+        <v>0.432543</v>
       </c>
       <c r="I11">
-        <v>0.001454589378002177</v>
+        <v>0.002776998583428524</v>
       </c>
       <c r="J11">
-        <v>0.001454589378002177</v>
+        <v>0.002776998583428525</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N11">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O11">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P11">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q11">
-        <v>2.645514093706509</v>
+        <v>5.453911714160666</v>
       </c>
       <c r="R11">
-        <v>2.645514093706509</v>
+        <v>49.085205427446</v>
       </c>
       <c r="S11">
-        <v>0.0006123204738585385</v>
+        <v>0.001143570962925724</v>
       </c>
       <c r="T11">
-        <v>0.0006123204738585385</v>
+        <v>0.001143570962925724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0701729690123771</v>
+        <v>0.144181</v>
       </c>
       <c r="H12">
-        <v>0.0701729690123771</v>
+        <v>0.432543</v>
       </c>
       <c r="I12">
-        <v>0.001454589378002177</v>
+        <v>0.002776998583428524</v>
       </c>
       <c r="J12">
-        <v>0.001454589378002177</v>
+        <v>0.002776998583428525</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N12">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O12">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P12">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q12">
-        <v>2.567084738770574</v>
+        <v>5.509051671016333</v>
       </c>
       <c r="R12">
-        <v>2.567084738770574</v>
+        <v>49.581465039147</v>
       </c>
       <c r="S12">
-        <v>0.0005941675182976377</v>
+        <v>0.001155132656048368</v>
       </c>
       <c r="T12">
-        <v>0.0005941675182976377</v>
+        <v>0.001155132656048368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0701729690123771</v>
+        <v>0.144181</v>
       </c>
       <c r="H13">
-        <v>0.0701729690123771</v>
+        <v>0.432543</v>
       </c>
       <c r="I13">
-        <v>0.001454589378002177</v>
+        <v>0.002776998583428524</v>
       </c>
       <c r="J13">
-        <v>0.001454589378002177</v>
+        <v>0.002776998583428525</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N13">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O13">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P13">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q13">
-        <v>0.597427929396985</v>
+        <v>1.235944283071666</v>
       </c>
       <c r="R13">
-        <v>0.597427929396985</v>
+        <v>11.123498547645</v>
       </c>
       <c r="S13">
-        <v>0.0001382783609790403</v>
+        <v>0.000259151608605077</v>
       </c>
       <c r="T13">
-        <v>0.0001382783609790403</v>
+        <v>0.000259151608605077</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.6958921843946</v>
+        <v>29.81579633333334</v>
       </c>
       <c r="H14">
-        <v>28.6958921843946</v>
+        <v>89.44738900000002</v>
       </c>
       <c r="I14">
-        <v>0.5948264773627272</v>
+        <v>0.5742672348052801</v>
       </c>
       <c r="J14">
-        <v>0.5948264773627272</v>
+        <v>0.5742672348052801</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N14">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O14">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P14">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q14">
-        <v>194.0325449605786</v>
+        <v>216.1283171013193</v>
       </c>
       <c r="R14">
-        <v>194.0325449605786</v>
+        <v>1945.154853911874</v>
       </c>
       <c r="S14">
-        <v>0.04491002340788147</v>
+        <v>0.04531757766839989</v>
       </c>
       <c r="T14">
-        <v>0.04491002340788147</v>
+        <v>0.04531757766839989</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.6958921843946</v>
+        <v>29.81579633333334</v>
       </c>
       <c r="H15">
-        <v>28.6958921843946</v>
+        <v>89.44738900000002</v>
       </c>
       <c r="I15">
-        <v>0.5948264773627272</v>
+        <v>0.5742672348052801</v>
       </c>
       <c r="J15">
-        <v>0.5948264773627272</v>
+        <v>0.5742672348052801</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N15">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O15">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P15">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q15">
-        <v>1081.832339057913</v>
+        <v>1127.837377250785</v>
       </c>
       <c r="R15">
-        <v>1081.832339057913</v>
+        <v>10150.53639525706</v>
       </c>
       <c r="S15">
-        <v>0.2503967346321466</v>
+        <v>0.236483856564369</v>
       </c>
       <c r="T15">
-        <v>0.2503967346321466</v>
+        <v>0.236483856564369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.6958921843946</v>
+        <v>29.81579633333334</v>
       </c>
       <c r="H16">
-        <v>28.6958921843946</v>
+        <v>89.44738900000002</v>
       </c>
       <c r="I16">
-        <v>0.5948264773627272</v>
+        <v>0.5742672348052801</v>
       </c>
       <c r="J16">
-        <v>0.5948264773627272</v>
+        <v>0.5742672348052801</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N16">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O16">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P16">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q16">
-        <v>1049.760155922321</v>
+        <v>1139.24000119872</v>
       </c>
       <c r="R16">
-        <v>1049.760155922321</v>
+        <v>10253.16001078848</v>
       </c>
       <c r="S16">
-        <v>0.2429734310020574</v>
+        <v>0.2388747477872989</v>
       </c>
       <c r="T16">
-        <v>0.2429734310020574</v>
+        <v>0.2388747477872989</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.6958921843946</v>
+        <v>29.81579633333334</v>
       </c>
       <c r="H17">
-        <v>28.6958921843946</v>
+        <v>89.44738900000002</v>
       </c>
       <c r="I17">
-        <v>0.5948264773627272</v>
+        <v>0.5742672348052801</v>
       </c>
       <c r="J17">
-        <v>0.5948264773627272</v>
+        <v>0.5742672348052801</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N17">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O17">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P17">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q17">
-        <v>244.3067136990909</v>
+        <v>255.5861245477039</v>
       </c>
       <c r="R17">
-        <v>244.3067136990909</v>
+        <v>2300.275120929335</v>
       </c>
       <c r="S17">
-        <v>0.0565462883206418</v>
+        <v>0.05359105278521228</v>
       </c>
       <c r="T17">
-        <v>0.0565462883206418</v>
+        <v>0.05359105278521228</v>
       </c>
     </row>
   </sheetData>
